--- a/medicine/Psychotrope/Layer_Cake/Layer_Cake.xlsx
+++ b/medicine/Psychotrope/Layer_Cake/Layer_Cake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Layer Cake[N 1],[N 2] est un film de gangsters britannique réalisé par Matthew Vaughn dont c'est le premier long métrage sortant en 2004. Le scénario est tiré du roman homonyme par son auteur J. J. Connolly (en) lui-même.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme dont le nom n'est pas révélé, y compris par lui-même narrateur de l'histoire en voix hors champ[N 3], est un trafiquant de drogue anglais. C'est un homme d'affaires discret et sérieux qui travaille avec une équipe pour écouler divers chargements de drogue pour le parrain du milieu Jimmy Price. Ayant amassé une somme suffisante il décide de prendre sa retraite. Mais les grands pontes du crime organisé ne sont pas d'accord.
 Le parrain du milieu Jimmy Price lui demande de retrouver la fille aînée junkie de son vieil ami le puissant criminel londonien Eddie Temple, et le charge d'écouler un arrivage d'une cargaison de pilules d'ecstasy en provenance d'Amsterdam par un criminel minable surnommé « le Duke ». L'homme recadre le Duke pour son manque de professionnalisme lors de leur rencontre et part chercher des acheteurs. En attendant, il fait la connaissance de la belle Tammy, petite amie d'un des hommes du Duke, dont il tombe amoureux.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original et français : Layer Cake.
 Réalisation : Matthew Vaughn.
@@ -559,16 +575,16 @@
 Production : Adam Bohling, David Reid, Matthew Vaughn et Stephen Marks.
 Sociétés de production : Columbia Pictures et Marv Films.
 Sociétés de distribution :  Gaumont Columbia Tristar Films, Sony Pictures Classics.
-Budget : 4 millions de £[1] (6 500 000 $[2]).
+Budget : 4 millions de £ (6 500 000 $).
 Pays d'origine :  Royaume-Uni.
 Format : couleurs - 2,35:1 - DTS / Dolby Digital / SDDS - 35 mm.
 Genre : Action, drame, thriller et gangsters
 Durée : 105 minutes.
-Dates de sortie[3] :
+Dates de sortie :
  Royaume-Uni : 1er octobre 2004 ;
  Belgique : 11 mai 2005 ;
  France : 13 juillet 2005.
-Film interdit aux moins de 12 ans lors de sa sortie en France, - de 16 au Royaume-Uni[4].</t>
+Film interdit aux moins de 12 ans lors de sa sortie en France, - de 16 au Royaume-Uni.</t>
         </is>
       </c>
     </row>
@@ -596,7 +612,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Daniel Craig (VF : Dominique Guillo) : le narrateur de sa propre histoire, jamais nommé bien que principal protagoniste à l'écran[N 3],
@@ -656,21 +674,127 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Layer cake fait référence à un gâteau fait de plusieurs couches différentes. C'est une métaphore des différents niveaux de la société britannique, dans le secteur criminel comme dans les autres. Vous naissez au pied du gâteau, vous en prenez plein la tête toute votre vie. Peu à peu, vous pouvez monter, de couche en couche, pour passer à des étages où la vie est moins difficile. Le but est toujours d'atteindre le sommet, vous vivez alors dans un nuage de crème au-dessus des autres[5]. »Matthew Vaughn, à propos de l'origine du titre
-Développement
-Matthew Vaughn rencontre J. J. Connolly en 2000 : « J'étais parti assister au match de foot Angleterre / Allemagne pendant l'Euro 2000. J'étais assis à côté d'un type. On a commencé à parler. Je lui ai demandé ce qu'il faisait dans la vie, il m'a répondu qu'il écrivait »[5]. De retour dans son pays, Matthew Vaughn se procure un exemplaire de son livre Layer Cake : « Je l'ai trouvé brillant et passionnant, je l'ai lu d'une traite. Après, j'ai revu John et je lui ai dit : “Tu sais, on ne peut pas laisser quelqu'un d'autre faire un film de ton livre, c'est trop génial” »[5].
+« Layer cake fait référence à un gâteau fait de plusieurs couches différentes. C'est une métaphore des différents niveaux de la société britannique, dans le secteur criminel comme dans les autres. Vous naissez au pied du gâteau, vous en prenez plein la tête toute votre vie. Peu à peu, vous pouvez monter, de couche en couche, pour passer à des étages où la vie est moins difficile. Le but est toujours d'atteindre le sommet, vous vivez alors dans un nuage de crème au-dessus des autres. »Matthew Vaughn, à propos de l'origine du titre</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Layer_Cake</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Layer_Cake</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matthew Vaughn rencontre J. J. Connolly en 2000 : « J'étais parti assister au match de foot Angleterre / Allemagne pendant l'Euro 2000. J'étais assis à côté d'un type. On a commencé à parler. Je lui ai demandé ce qu'il faisait dans la vie, il m'a répondu qu'il écrivait ». De retour dans son pays, Matthew Vaughn se procure un exemplaire de son livre Layer Cake : « Je l'ai trouvé brillant et passionnant, je l'ai lu d'une traite. Après, j'ai revu John et je lui ai dit : “Tu sais, on ne peut pas laisser quelqu'un d'autre faire un film de ton livre, c'est trop génial” ».
 La première ébauche du scénario fait 408 pages tandis que le roman original n'en fait que 344.
-Matthew Vaughn veut initialement confier la réalisation du film à son ami Guy Ritchie pour lequel il a déjà produit Arnaques, Crimes et Botanique et Snatch : Tu braques ou tu raques. Finalement il se retrouve à assumer lui-même la fonction de réalisateur après le désistement de Guy Ritchie parti sur d'autres projets[5].
-Tournage
-Le tournage débute le 30 juin 2003[1] et se déroule à Amsterdam, Isleworth, Londres, dans le  Buckinghamshire, à Brentford, Stoke Poges, aux Twickenham Film Studios, etc.[6]
+Matthew Vaughn veut initialement confier la réalisation du film à son ami Guy Ritchie pour lequel il a déjà produit Arnaques, Crimes et Botanique et Snatch : Tu braques ou tu raques. Finalement il se retrouve à assumer lui-même la fonction de réalisateur après le désistement de Guy Ritchie parti sur d'autres projets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Layer_Cake</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Layer_Cake</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 30 juin 2003 et se déroule à Amsterdam, Isleworth, Londres, dans le  Buckinghamshire, à Brentford, Stoke Poges, aux Twickenham Film Studios, etc.
 Les Serbes d'Amsterdam qui poursuivent le protagoniste parlent en fait roumain, entre eux.
 Le pistolet silencieux dont se sert le narrateur pour tuer Jimmy est un Type 67 (en) utilisé par l'armée et les services secrets chinois.
 L'entrepôt (l'un des plus grands de ce type au Royaume-Uni) où l'homme innommé et ses comparses rencontrent Eddie Temple et les siens en fin de film est la plupart du temps vide. Les caisses et autres objets sont rajoutés numériquement lors de la post-production.
-Bande originale
-Hayling – FC Kahuna,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Layer_Cake</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Layer_Cake</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hayling – FC Kahuna,
 Opening – Ilan Eshkeri &amp; Steve McLaughlin,
 She Sells Sanctuary – The Cult,
 Can't Get Blue Monday Out of My Head (Original Radio Edit) – Kylie Minogue,
@@ -687,73 +811,115 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Layer_Cake</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Layer_Cake</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Layer_Cake</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Layer_Cake</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sortie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique
-Il reçoit un accueil critique favorable, recueillant 81 % d'avis positifs avec une note moyenne de 7,1/10 sur la base de 133 articles collectés sur le site agrégateur Rotten Tomatoes; le consensus du site indique :« Un thriller policier stylisé électrifié britannique »[8]. Sur Metacritic il obtient un score de 73/100? sur la base de 30 critiques collectées[9].
-En France le film obtient une note moyenne de 3,1⁄5? sur le site AlloCiné qui recense 16 titres de presse[10].
-Box-office
-Le film connaît un succès commercial modéré, rapportant environ 11 850 000 $ au box-office mondial pour un budget de 6 500 000 $[11]. En France il réalise 20 958 entrées[12].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il reçoit un accueil critique favorable, recueillant 81 % d'avis positifs avec une note moyenne de 7,1/10 sur la base de 133 articles collectés sur le site agrégateur Rotten Tomatoes; le consensus du site indique :« Un thriller policier stylisé électrifié britannique ». Sur Metacritic il obtient un score de 73/100? sur la base de 30 critiques collectées.
+En France le film obtient une note moyenne de 3,1⁄5? sur le site AlloCiné qui recense 16 titres de presse.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Layer_Cake</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Layer_Cake</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Layer_Cake</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Layer_Cake</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film connaît un succès commercial modéré, rapportant environ 11 850 000 $ au box-office mondial pour un budget de 6 500 000 $. En France il réalise 20 958 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Layer_Cake</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Layer_Cake</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Source : Internet Movie Database[13].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Source : Internet Movie Database.
 Nomination au prix Douglas Hickox pour Matthew Vaughn lors des British Independent Film Awards 2004.
 Nomination au prix Carl Foreman du nouveau cinéaste le plus prometteur pour Matthew Vaughn lors des BAFTA Awards 2005.
 Le film est projeté le 7 avril 2005 au Festival du film policier de Cognac en France.
 Prix du meilleur réalisateur britannique et nomination aux prix des meilleur film britannique, meilleur acteur britannique (Daniel Craig) et meilleurs espoirs (Sienna Miller et Matthew Vaughn) lors des Empire Awards de 2005.
-Il est classé 276e meilleur film de tous les temps par le magazine Empire[14].
+Il est classé 276e meilleur film de tous les temps par le magazine Empire.
 Nomination au prix du meilleur acteur européen pour Daniel Craig lors des prix du cinéma européen de 2005.</t>
         </is>
       </c>
